--- a/FantaSoccer/xG/Ligue1/Digione_matches_2020_fixed.xlsx
+++ b/FantaSoccer/xG/Ligue1/Digione_matches_2020_fixed.xlsx
@@ -876,6 +876,18 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
+      <c r="D19">
+        <v>0.878332</v>
+      </c>
+      <c r="E19">
+        <v>0.125669</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
@@ -886,6 +898,18 @@
       </c>
       <c r="C20" t="s">
         <v>21</v>
+      </c>
+      <c r="D20">
+        <v>0.48883</v>
+      </c>
+      <c r="E20">
+        <v>1.80202</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
